--- a/Part 1 Operating Band, Frame Structure/1_RB Count/3GPP_TS_38_101_RB_FR1.xlsx
+++ b/Part 1 Operating Band, Frame Structure/1_RB Count/3GPP_TS_38_101_RB_FR1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e866b2b393b88c91/Code/99 - Project/5G-NR-Planning-And-Dimensioning/Part 1 Operating Band^J Frame Structure/1 RB Count/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e866b2b393b88c91/Code/99 - Project/5G-NR-Planning-And-Dimensioning/Part 1 Operating Band^J Frame Structure/1_RB Count/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01755BB7-B162-41D0-AE3E-5414B217718F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D67282E-A331-410C-8C0C-DC0668AB4C77}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2700" windowWidth="14130" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>SCS (kHz)</t>
   </si>
   <si>
-    <t>5MHz</t>
-  </si>
-  <si>
-    <t>10MHz</t>
-  </si>
-  <si>
-    <t>15MHz</t>
-  </si>
-  <si>
     <t>20 MHz</t>
   </si>
   <si>
@@ -51,9 +42,6 @@
     <t>40 MHz</t>
   </si>
   <si>
-    <t>50MHz</t>
-  </si>
-  <si>
     <t>60 MHz</t>
   </si>
   <si>
@@ -64,6 +52,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>5 MHz</t>
+  </si>
+  <si>
+    <t>10 MHz</t>
+  </si>
+  <si>
+    <t>15 MHz</t>
+  </si>
+  <si>
+    <t>50 MHz</t>
+  </si>
+  <si>
+    <t>15 kHz</t>
+  </si>
+  <si>
+    <t>30 kHz</t>
+  </si>
+  <si>
+    <t>60 kHz</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,42 +454,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>15</v>
+      <c r="A2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>25</v>
@@ -507,18 +516,18 @@
         <v>270</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>30</v>
+      <c r="A3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>11</v>
@@ -555,11 +564,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>60</v>
+      <c r="A4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>11</v>
